--- a/LTQL/PersonalProject/Project.xlsx
+++ b/LTQL/PersonalProject/Project.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="QLTB" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Databse" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="128">
   <si>
     <t>Personal Project</t>
   </si>
@@ -344,6 +344,63 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>Bồn cầu</t>
+  </si>
+  <si>
+    <t>Vòi nước di động</t>
+  </si>
+  <si>
+    <t>Bồn tiểu (Nam)</t>
+  </si>
+  <si>
+    <t>Giay</t>
+  </si>
+  <si>
+    <t>NgayThaitb</t>
+  </si>
+  <si>
+    <t>ChiTietTT</t>
+  </si>
+  <si>
+    <t>Quyền User</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>Danh mục</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Tinhtrang</t>
+  </si>
+  <si>
+    <t>Bộ phận</t>
+  </si>
+  <si>
+    <t>Đơn vị quản lí</t>
+  </si>
+  <si>
+    <t>Hạn bảo hành</t>
+  </si>
+  <si>
+    <t>Gía trị</t>
+  </si>
+  <si>
+    <t>Nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Chủng loại</t>
   </si>
 </sst>
 </file>
@@ -414,15 +471,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -443,6 +494,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -838,23 +898,23 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -919,26 +979,26 @@
       <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5">
+    <row r="2" spans="1:5" ht="16.8">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -948,11 +1008,11 @@
       <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5">
+    <row r="3" spans="1:5" ht="16.8">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -962,77 +1022,77 @@
       <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5">
+    <row r="4" spans="1:5" ht="16.8">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5">
+    <row r="5" spans="1:5" ht="16.8">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5">
+    <row r="6" spans="1:5" ht="16.8">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5">
+    <row r="7" spans="1:5" ht="16.8">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5">
+    <row r="8" spans="1:5" ht="16.8">
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5">
+    <row r="9" spans="1:5" ht="16.8">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5">
+    <row r="10" spans="1:5" ht="16.8">
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.5">
-      <c r="E11" s="5" t="s">
+    <row r="11" spans="1:5" ht="16.8">
+      <c r="E11" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1047,913 +1107,921 @@
   <dimension ref="B2:O47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
-    <col min="4" max="4" width="45.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="45.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="30.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>1</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
     </row>
     <row r="4" spans="2:15">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>8</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>4</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="2:15" ht="28.5">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="2:15" ht="27.6">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
     </row>
     <row r="7" spans="2:15">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="6" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
     </row>
     <row r="8" spans="2:15">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="6" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
     </row>
     <row r="9" spans="2:15">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="6" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
     </row>
     <row r="10" spans="2:15">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="6" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="2:15" ht="33">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="9" t="s">
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="2:15" ht="33.6">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="2:15" ht="28.5">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="9" t="s">
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="2:15" ht="33.6">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-    </row>
-    <row r="13" spans="2:15" ht="28.5">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="9" t="s">
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="2:15" ht="27.6">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="6" t="s">
+      <c r="E13" s="5"/>
+      <c r="F13" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-    </row>
-    <row r="14" spans="2:15" ht="28.5">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="9" t="s">
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="2:15" ht="27.6">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="6" t="s">
+      <c r="E14" s="5"/>
+      <c r="F14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-    </row>
-    <row r="15" spans="2:15" ht="33">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="9" t="s">
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="2:15" ht="33.6">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="6" t="s">
+      <c r="E15" s="5"/>
+      <c r="F15" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-    </row>
-    <row r="16" spans="2:15" ht="16.5">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="9" t="s">
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="2:15" ht="16.8">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="6" t="s">
+      <c r="E16" s="5"/>
+      <c r="F16" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-    </row>
-    <row r="17" spans="2:15" ht="16.5">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="9" t="s">
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="2:15" ht="16.8">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="6" t="s">
+      <c r="E17" s="5"/>
+      <c r="F17" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-    </row>
-    <row r="18" spans="2:15" ht="16.5">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="9" t="s">
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="2:15" ht="16.8">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="6" t="s">
+      <c r="E18" s="5"/>
+      <c r="F18" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-    </row>
-    <row r="19" spans="2:15" ht="28.5">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="6" t="s">
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="2:15" ht="27.6">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-    </row>
-    <row r="20" spans="2:15" ht="42.75">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="6" t="s">
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="2:15" ht="41.4">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
     </row>
     <row r="21" spans="2:15">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="6" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
     </row>
     <row r="22" spans="2:15">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="6" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-    </row>
-    <row r="23" spans="2:15" ht="16.5">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="6" t="s">
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+    </row>
+    <row r="23" spans="2:15" ht="16.8">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-    </row>
-    <row r="24" spans="2:15" ht="16.5">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="6" t="s">
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+    </row>
+    <row r="24" spans="2:15" ht="16.8">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-    </row>
-    <row r="25" spans="2:15" ht="16.5">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="6" t="s">
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+    </row>
+    <row r="25" spans="2:15" ht="16.8">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
     </row>
     <row r="26" spans="2:15">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="6" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
     </row>
     <row r="27" spans="2:15">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="6" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
     </row>
     <row r="28" spans="2:15">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="6" t="s">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
     </row>
     <row r="29" spans="2:15">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="6" t="s">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-    </row>
-    <row r="30" spans="2:15" ht="28.5">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="6" t="s">
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+    </row>
+    <row r="30" spans="2:15" ht="27.6">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-    </row>
-    <row r="31" spans="2:15" ht="28.5">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="6" t="s">
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+    </row>
+    <row r="31" spans="2:15" ht="27.6">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
     </row>
     <row r="32" spans="2:15">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="6" t="s">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-    </row>
-    <row r="33" spans="2:15" ht="28.5">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="6" t="s">
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+    </row>
+    <row r="33" spans="2:15" ht="27.6">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
     </row>
     <row r="34" spans="2:15">
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="6" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
     </row>
     <row r="35" spans="2:15">
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="6" t="s">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
     </row>
     <row r="36" spans="2:15">
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="6" t="s">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-    </row>
-    <row r="37" spans="2:15" ht="28.5">
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="6" t="s">
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+    </row>
+    <row r="37" spans="2:15" ht="27.6">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
     </row>
     <row r="38" spans="2:15">
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="6" t="s">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
     </row>
     <row r="39" spans="2:15">
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="6" t="s">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
     </row>
     <row r="40" spans="2:15">
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="6" t="s">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-    </row>
-    <row r="41" spans="2:15" ht="28.5">
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="6" t="s">
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+    </row>
+    <row r="41" spans="2:15" ht="27.6">
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-    </row>
-    <row r="42" spans="2:15" ht="28.5">
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="6" t="s">
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+    </row>
+    <row r="42" spans="2:15">
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-    </row>
-    <row r="43" spans="2:15" ht="28.5">
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="6" t="s">
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+    </row>
+    <row r="43" spans="2:15" ht="27.6">
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
     </row>
     <row r="44" spans="2:15">
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="6" t="s">
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-    </row>
-    <row r="45" spans="2:15" ht="28.5">
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="6" t="s">
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+    </row>
+    <row r="45" spans="2:15" ht="27.6">
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
     </row>
     <row r="46" spans="2:15">
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
     </row>
     <row r="47" spans="2:15">
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1963,78 +2031,153 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
         <v>104</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="H2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" t="s">
         <v>97</v>
       </c>
-      <c r="B2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="J2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M2" t="s">
+        <v>121</v>
+      </c>
+      <c r="N2" t="s">
+        <v>122</v>
+      </c>
+      <c r="O2" t="s">
+        <v>123</v>
+      </c>
+      <c r="P2" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>125</v>
+      </c>
+      <c r="R2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S2" t="s">
+        <v>118</v>
+      </c>
+      <c r="T2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>100</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>101</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>102</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>106</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>103</v>
       </c>
     </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LTQL/PersonalProject/Project.xlsx
+++ b/LTQL/PersonalProject/Project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="139">
   <si>
     <t>Personal Project</t>
   </si>
@@ -124,12 +124,6 @@
     <t>Thang máy</t>
   </si>
   <si>
-    <t>Phòng vệ sinh</t>
-  </si>
-  <si>
-    <t>Phòng bảo vệ, giữ xe</t>
-  </si>
-  <si>
     <t>SL</t>
   </si>
   <si>
@@ -262,9 +256,6 @@
     <t>gối có vỏ bọc</t>
   </si>
   <si>
-    <t>Thiết bị Phòng thuê</t>
-  </si>
-  <si>
     <t>Bàn là</t>
   </si>
   <si>
@@ -346,18 +337,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>Bồn cầu</t>
-  </si>
-  <si>
-    <t>Vòi nước di động</t>
-  </si>
-  <si>
-    <t>Bồn tiểu (Nam)</t>
-  </si>
-  <si>
-    <t>Giay</t>
-  </si>
-  <si>
     <t>NgayThaitb</t>
   </si>
   <si>
@@ -388,9 +367,6 @@
     <t>Đơn vị quản lí</t>
   </si>
   <si>
-    <t>Hạn bảo hành</t>
-  </si>
-  <si>
     <t>Gía trị</t>
   </si>
   <si>
@@ -400,7 +376,64 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>Chủng loại</t>
+    <t>Set tự động khi thêm</t>
+  </si>
+  <si>
+    <t>Set theo bộ phận</t>
+  </si>
+  <si>
+    <t>DVQL 1</t>
+  </si>
+  <si>
+    <t>Phòng lưu trú + Phòng vệ sinh</t>
+  </si>
+  <si>
+    <t>Phòng họp, hội thảo, hội nghị , Phòng bảo vệ, giữ xe</t>
+  </si>
+  <si>
+    <t>DVQL 2</t>
+  </si>
+  <si>
+    <t>DVQL 3</t>
+  </si>
+  <si>
+    <t>DVQL 4</t>
+  </si>
+  <si>
+    <t>DVQL 5</t>
+  </si>
+  <si>
+    <t>TÊN</t>
+  </si>
+  <si>
+    <t>Phân loại</t>
+  </si>
+  <si>
+    <t>Value Hạn bảo hành</t>
+  </si>
+  <si>
+    <t>Ngày mua - Thời gian bảo hành = value</t>
+  </si>
+  <si>
+    <t>Thời gian bảo hành</t>
+  </si>
+  <si>
+    <t>Đang sd</t>
+  </si>
+  <si>
+    <t>Bảo trì</t>
+  </si>
+  <si>
+    <t>Hỏng</t>
+  </si>
+  <si>
+    <t>Trong kho</t>
+  </si>
+  <si>
+    <t>Bỏ thiết bị</t>
+  </si>
+  <si>
+    <t>Thêm tb</t>
   </si>
 </sst>
 </file>
@@ -471,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -486,12 +519,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -503,6 +530,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,16 +567,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -567,7 +609,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -898,23 +940,23 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="10"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -979,11 +1021,11 @@
       <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -998,7 +1040,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.8">
+    <row r="2" spans="1:5" ht="16.5">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1012,7 +1054,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.8">
+    <row r="3" spans="1:5" ht="16.5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1026,7 +1068,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.8">
+    <row r="4" spans="1:5" ht="16.5">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1037,7 +1079,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.8">
+    <row r="5" spans="1:5" ht="16.5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1048,7 +1090,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.8">
+    <row r="6" spans="1:5" ht="16.5">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1059,7 +1101,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.8">
+    <row r="7" spans="1:5" ht="16.5">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1067,7 +1109,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.8">
+    <row r="8" spans="1:5" ht="16.5">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1075,7 +1117,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.8">
+    <row r="9" spans="1:5" ht="16.5">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1083,7 +1125,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.8">
+    <row r="10" spans="1:5" ht="16.5">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1091,7 +1133,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.8">
+    <row r="11" spans="1:5" ht="16.5">
       <c r="E11" s="3" t="s">
         <v>34</v>
       </c>
@@ -1104,919 +1146,811 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O47"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="45.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="30.44140625" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15">
-      <c r="B2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="5" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="5">
-        <v>4</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="5">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="5">
+    <row r="4" spans="1:15">
+      <c r="A4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="11">
         <v>4</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="C4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+    <row r="5" spans="1:15" ht="28.5">
+      <c r="A5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="2:15" ht="27.6">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+    <row r="6" spans="1:15" ht="28.5">
+      <c r="A6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+    <row r="7" spans="1:15">
+      <c r="A7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+    <row r="8" spans="1:15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+    <row r="9" spans="1:15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="2:15">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+    <row r="10" spans="1:15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="2:15" ht="33.6">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+    <row r="11" spans="1:15" ht="66">
+      <c r="A11" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="2:15" ht="33.6">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+    <row r="12" spans="1:15" ht="49.5">
+      <c r="A12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="2:15" ht="27.6">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+    <row r="13" spans="1:15" ht="33">
+      <c r="A13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="2:15" ht="27.6">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+    <row r="14" spans="1:15" ht="33">
+      <c r="A14" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
     </row>
-    <row r="15" spans="2:15" ht="33.6">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+    <row r="15" spans="1:15" ht="82.5">
+      <c r="A15" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="2:15" ht="16.8">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+    <row r="16" spans="1:15" ht="33">
+      <c r="A16" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="2:15" ht="16.8">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+    <row r="17" spans="1:15" ht="33">
+      <c r="A17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="2:15" ht="16.8">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+    <row r="18" spans="1:15" ht="33">
+      <c r="A18" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
     </row>
-    <row r="19" spans="2:15" ht="27.6">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+    <row r="19" spans="1:15" ht="28.5">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="2:15" ht="41.4">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+    <row r="20" spans="1:15" ht="42.75">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
     </row>
-    <row r="21" spans="2:15">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+    <row r="21" spans="1:15">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="2:15">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+    <row r="22" spans="1:15">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="2:15" ht="16.8">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+    <row r="23" spans="1:15" ht="16.5">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="8"/>
+      <c r="L23" s="6"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="2:15" ht="16.8">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+    <row r="24" spans="1:15" ht="16.5">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="8"/>
+      <c r="L24" s="6"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
     </row>
-    <row r="25" spans="2:15" ht="16.8">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
+    <row r="25" spans="1:15" ht="16.5">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="8"/>
+      <c r="L25" s="6"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
     </row>
-    <row r="26" spans="2:15">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+    <row r="26" spans="1:15">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
     </row>
-    <row r="27" spans="2:15">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
+    <row r="27" spans="1:15" ht="28.5">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
     </row>
-    <row r="28" spans="2:15">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+    <row r="28" spans="1:15">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
     </row>
-    <row r="29" spans="2:15">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
+    <row r="29" spans="1:15">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
     </row>
-    <row r="30" spans="2:15" ht="27.6">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
+    <row r="30" spans="1:15" ht="28.5">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
     </row>
-    <row r="31" spans="2:15" ht="27.6">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
+    <row r="31" spans="1:15" ht="28.5">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
     </row>
-    <row r="32" spans="2:15">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
+    <row r="32" spans="1:15">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
     </row>
-    <row r="33" spans="2:15" ht="27.6">
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
+    <row r="33" spans="1:15" ht="28.5">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
     </row>
-    <row r="34" spans="2:15">
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
+    <row r="34" spans="1:15">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
     </row>
-    <row r="35" spans="2:15">
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
+    <row r="35" spans="1:15">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
     </row>
-    <row r="36" spans="2:15">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
+    <row r="36" spans="1:15">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
     </row>
-    <row r="37" spans="2:15" ht="27.6">
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
+    <row r="37" spans="1:15" ht="28.5">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
     </row>
-    <row r="38" spans="2:15">
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
+    <row r="38" spans="1:15">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
     </row>
-    <row r="39" spans="2:15">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
+    <row r="39" spans="1:15">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
     </row>
-    <row r="40" spans="2:15">
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
+    <row r="40" spans="1:15">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
     </row>
-    <row r="41" spans="2:15" ht="27.6">
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
+    <row r="41" spans="1:15" ht="28.5">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
     </row>
-    <row r="42" spans="2:15">
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
+    <row r="42" spans="1:15" ht="28.5">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
     </row>
-    <row r="43" spans="2:15" ht="27.6">
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
+    <row r="43" spans="1:15" ht="28.5">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
     </row>
-    <row r="44" spans="2:15">
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
+    <row r="44" spans="1:15" ht="28.5">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
     </row>
-    <row r="45" spans="2:15" ht="27.6">
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
+    <row r="45" spans="1:15" ht="28.5">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
     </row>
-    <row r="46" spans="2:15">
+    <row r="46" spans="1:15">
+      <c r="A46" s="5"/>
       <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
       <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
     </row>
-    <row r="47" spans="2:15">
+    <row r="47" spans="1:15">
+      <c r="A47" s="5"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
+      <c r="C47" s="4"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
-      <c r="F47" s="4"/>
+      <c r="F47" s="5"/>
       <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
@@ -2031,147 +1965,212 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-    </row>
-    <row r="2" spans="1:20">
+    <row r="1" spans="1:21">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N3" t="s">
+        <v>131</v>
+      </c>
+      <c r="O3" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>121</v>
+      </c>
+      <c r="R3" t="s">
+        <v>128</v>
+      </c>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O4" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="O5" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
         <v>104</v>
       </c>
-      <c r="B2" t="s">
+      <c r="O6" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
         <v>105</v>
       </c>
-      <c r="H2" t="s">
-        <v>119</v>
-      </c>
-      <c r="I2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L2" t="s">
-        <v>120</v>
-      </c>
-      <c r="M2" t="s">
-        <v>121</v>
-      </c>
-      <c r="N2" t="s">
-        <v>122</v>
-      </c>
-      <c r="O2" t="s">
-        <v>123</v>
-      </c>
-      <c r="P2" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>125</v>
-      </c>
-      <c r="R2" t="s">
-        <v>126</v>
-      </c>
-      <c r="S2" t="s">
-        <v>118</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="Q7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="8" spans="1:21">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="H15" t="s">
+        <v>138</v>
+      </c>
+      <c r="I15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>115</v>
-      </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/LTQL/PersonalProject/Project.xlsx
+++ b/LTQL/PersonalProject/Project.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Celar" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Thông tin Database" sheetId="3" r:id="rId3"/>
-    <sheet name="Databse" sheetId="4" r:id="rId4"/>
+    <sheet name="UI" sheetId="2" r:id="rId2"/>
+    <sheet name=" Database" sheetId="3" r:id="rId3"/>
+    <sheet name="Type Databse" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
+    <sheet name="MVC Model" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="164">
   <si>
     <t>Personal Project</t>
   </si>
@@ -492,6 +494,24 @@
   </si>
   <si>
     <t>Thêm, xóa sửa thiết bị</t>
+  </si>
+  <si>
+    <t>Presentation Layer</t>
+  </si>
+  <si>
+    <t>Business Logic Layer</t>
+  </si>
+  <si>
+    <t>Data Access Layer</t>
+  </si>
+  <si>
+    <t>Model View Controller</t>
+  </si>
+  <si>
+    <t>1300 x 700px</t>
+  </si>
+  <si>
+    <t>Form size (All)</t>
   </si>
 </sst>
 </file>
@@ -530,7 +550,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -555,6 +575,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -568,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -601,15 +645,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -623,8 +658,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1017,7 +1071,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1029,14 +1083,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="13"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -1095,10 +1149,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1218,6 +1272,14 @@
         <v>34</v>
       </c>
     </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" t="s">
+        <v>162</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1229,7 +1291,7 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2047,8 +2109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:D23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2117,10 +2179,10 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="14" t="s">
         <v>147</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -2177,8 +2239,8 @@
         <v>101</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="5">
@@ -2345,7 +2407,7 @@
     </row>
     <row r="18" spans="1:13" ht="57.6">
       <c r="A18" s="2"/>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="15" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2370,21 +2432,21 @@
       <c r="B22" s="5"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="F23" s="16" t="s">
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="F23" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
@@ -2412,10 +2474,10 @@
       <c r="A25">
         <v>1</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="19"/>
+      <c r="C25" s="16"/>
       <c r="D25" t="s">
         <v>100</v>
       </c>
@@ -2455,11 +2517,11 @@
       <c r="A28">
         <v>4</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15" t="s">
+      <c r="C28" s="12"/>
+      <c r="D28" s="12" t="s">
         <v>101</v>
       </c>
       <c r="H28" s="5"/>
@@ -2574,4 +2636,244 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="G4:P21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="4" spans="7:16">
+      <c r="J4" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+    </row>
+    <row r="6" spans="7:16">
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+    </row>
+    <row r="7" spans="7:16">
+      <c r="G7" s="17"/>
+      <c r="H7" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="17"/>
+    </row>
+    <row r="8" spans="7:16">
+      <c r="G8" s="17"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="17"/>
+    </row>
+    <row r="9" spans="7:16">
+      <c r="G9" s="17"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="17"/>
+    </row>
+    <row r="10" spans="7:16">
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+    </row>
+    <row r="11" spans="7:16">
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+    </row>
+    <row r="12" spans="7:16">
+      <c r="G12" s="17"/>
+      <c r="H12" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="17"/>
+    </row>
+    <row r="13" spans="7:16">
+      <c r="G13" s="17"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="17"/>
+    </row>
+    <row r="14" spans="7:16">
+      <c r="G14" s="17"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="17"/>
+    </row>
+    <row r="15" spans="7:16">
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+    </row>
+    <row r="16" spans="7:16">
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+    </row>
+    <row r="17" spans="7:16">
+      <c r="G17" s="17"/>
+      <c r="H17" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="17"/>
+    </row>
+    <row r="18" spans="7:16">
+      <c r="G18" s="17"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="17"/>
+    </row>
+    <row r="19" spans="7:16">
+      <c r="G19" s="17"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="17"/>
+    </row>
+    <row r="20" spans="7:16">
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+    </row>
+    <row r="21" spans="7:16">
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H7:O9"/>
+    <mergeCell ref="H12:O14"/>
+    <mergeCell ref="H17:O19"/>
+    <mergeCell ref="J4:M4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/LTQL/PersonalProject/Project.xlsx
+++ b/LTQL/PersonalProject/Project.xlsx
@@ -4,22 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Celar" sheetId="1" r:id="rId1"/>
-    <sheet name="UI" sheetId="2" r:id="rId2"/>
-    <sheet name=" Database" sheetId="3" r:id="rId3"/>
-    <sheet name="Type Databse" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
-    <sheet name="MVC Model" sheetId="5" r:id="rId6"/>
+    <sheet name="ManagermentProgram" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId2"/>
+    <sheet name="Celar" sheetId="1" r:id="rId3"/>
+    <sheet name="UI" sheetId="2" r:id="rId4"/>
+    <sheet name="Design" sheetId="7" r:id="rId5"/>
+    <sheet name=" Database" sheetId="3" r:id="rId6"/>
+    <sheet name="Type Databse" sheetId="4" r:id="rId7"/>
+    <sheet name="MVC Model" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="166">
   <si>
     <t>Personal Project</t>
   </si>
@@ -391,18 +393,12 @@
     <t>Cấp phát</t>
   </si>
   <si>
-    <t>vd: bàn</t>
-  </si>
-  <si>
     <t>Địa điểm đang được cấp phát</t>
   </si>
   <si>
     <t>vd:24/02/2022</t>
   </si>
   <si>
-    <t>số tiền</t>
-  </si>
-  <si>
     <t>ten nhà cung cấp</t>
   </si>
   <si>
@@ -484,9 +480,6 @@
     <t>Tình trạng cấp phát</t>
   </si>
   <si>
-    <t>Bộ phận cấp phát</t>
-  </si>
-  <si>
     <t>Ngày mua thiết bị</t>
   </si>
   <si>
@@ -512,12 +505,27 @@
   </si>
   <si>
     <t>Form size (All)</t>
+  </si>
+  <si>
+    <t>FormMain</t>
+  </si>
+  <si>
+    <t>Địa điểm đang sử dụng</t>
+  </si>
+  <si>
+    <t>Bộ phận</t>
+  </si>
+  <si>
+    <t>GhiChu</t>
+  </si>
+  <si>
+    <t>nvarchar(510)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -1068,6 +1076,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1147,12 +1181,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1274,10 +1308,15 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s">
-        <v>162</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1286,7 +1325,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O47"/>
   <sheetViews>
@@ -2105,12 +2158,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2149,7 +2202,7 @@
         <v>104</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>98</v>
@@ -2180,13 +2233,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E3" s="5"/>
       <c r="H3" s="2"/>
@@ -2200,13 +2253,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E4" s="5"/>
     </row>
@@ -2215,13 +2268,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -2230,10 +2283,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>101</v>
@@ -2250,13 +2303,10 @@
         <v>103</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -2267,14 +2317,12 @@
         <v>105</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>125</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="5">
@@ -2284,13 +2332,13 @@
         <v>110</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>102</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -2298,16 +2346,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -2315,16 +2363,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -2332,13 +2380,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>120</v>
@@ -2349,16 +2397,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2369,10 +2417,10 @@
         <v>106</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>125</v>
@@ -2383,115 +2431,118 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="16" spans="1:23">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="57.6">
-      <c r="A18" s="2"/>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="57.6">
+      <c r="A19" s="2"/>
+      <c r="B19" s="15" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="2"/>
-      <c r="B19" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2"/>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="2"/>
-      <c r="B21" s="5"/>
+      <c r="B21" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="2"/>
       <c r="B22" s="5"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="2"/>
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="F23" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="2" t="s">
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="F24" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" t="s">
-        <v>100</v>
-      </c>
-      <c r="H25" s="5"/>
-      <c r="L25" s="5"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26">
-        <v>2</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="16"/>
       <c r="D26" t="s">
         <v>100</v>
       </c>
@@ -2500,115 +2551,123 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="5"/>
       <c r="H27" s="5"/>
       <c r="L27" s="5"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12" t="s">
-        <v>101</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="5"/>
       <c r="H28" s="5"/>
       <c r="L28" s="5"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29">
-        <v>5</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" t="s">
-        <v>100</v>
+        <v>4</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="H29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:13" ht="13.8" customHeight="1">
+    <row r="30" spans="1:13">
       <c r="A30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" t="s">
         <v>100</v>
       </c>
-      <c r="E30" t="s">
-        <v>116</v>
-      </c>
       <c r="H30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" ht="13.8" customHeight="1">
       <c r="A31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" t="s">
         <v>100</v>
       </c>
       <c r="E31" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H31" s="5"/>
       <c r="L31" s="5"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" t="s">
         <v>100</v>
       </c>
       <c r="E32" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H32" s="5"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C33" s="5"/>
+      <c r="D33" t="s">
+        <v>100</v>
+      </c>
       <c r="E33" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H33" s="5"/>
       <c r="L33" s="5"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="B34" s="5"/>
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="C34" s="5"/>
+      <c r="E34" t="s">
+        <v>126</v>
+      </c>
       <c r="H34" s="5"/>
       <c r="L34" s="5"/>
     </row>
@@ -2627,42 +2686,36 @@
     <row r="37" spans="1:12">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="L37" s="5"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="K24:M24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G4:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+      <selection activeCell="H17" sqref="H17:O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="4" spans="7:16">
       <c r="J4" s="21" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K4" s="21"/>
       <c r="L4" s="21"/>
@@ -2683,7 +2736,7 @@
     <row r="7" spans="7:16">
       <c r="G7" s="17"/>
       <c r="H7" s="22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
@@ -2745,7 +2798,7 @@
     <row r="12" spans="7:16">
       <c r="G12" s="17"/>
       <c r="H12" s="23" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
@@ -2807,7 +2860,7 @@
     <row r="17" spans="7:16">
       <c r="G17" s="17"/>
       <c r="H17" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>

--- a/LTQL/PersonalProject/Project.xlsx
+++ b/LTQL/PersonalProject/Project.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ManagermentProgram" sheetId="6" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="8" r:id="rId2"/>
+    <sheet name="Chức Năng" sheetId="8" r:id="rId2"/>
     <sheet name="Celar" sheetId="1" r:id="rId3"/>
     <sheet name="UI" sheetId="2" r:id="rId4"/>
     <sheet name="Design" sheetId="7" r:id="rId5"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="174">
   <si>
     <t>Personal Project</t>
   </si>
@@ -374,13 +374,6 @@
     <t>Tốt/Hỏng/Bảo trì</t>
   </si>
   <si>
-    <t>Tìm kiếm
- (mã, tên, danh mục,phân loại, thời gian bảo hành, tình trạngTB)</t>
-  </si>
-  <si>
-    <t>Quyền Truy cập: ADMIN</t>
-  </si>
-  <si>
     <t>Bộ phận (Tên các bộ phận)</t>
   </si>
   <si>
@@ -486,9 +479,6 @@
     <t>Tên lí giải</t>
   </si>
   <si>
-    <t>Thêm, xóa sửa thiết bị</t>
-  </si>
-  <si>
     <t>Presentation Layer</t>
   </si>
   <si>
@@ -520,6 +510,39 @@
   </si>
   <si>
     <t>nvarchar(510)</t>
+  </si>
+  <si>
+    <t>Thêm</t>
+  </si>
+  <si>
+    <t>Tìm kiếm</t>
+  </si>
+  <si>
+    <t>Xóa</t>
+  </si>
+  <si>
+    <t>Sửa</t>
+  </si>
+  <si>
+    <t>Mã sản phẩm</t>
+  </si>
+  <si>
+    <t>Tên sản phẩm</t>
+  </si>
+  <si>
+    <t>Phân loại</t>
+  </si>
+  <si>
+    <t>Lựa chọn khoản thời gian,tìm kiếm các sản phẩm đã mua trong khoảng thời gian đó</t>
+  </si>
+  <si>
+    <t>Tình trạng thiết bị (Hỏng/tốt/đang bảo trì)</t>
+  </si>
+  <si>
+    <t>Thêm thiết bị mới mua</t>
+  </si>
+  <si>
+    <t>Thêm tài khoản, cấp phát thêm quyền truy cập</t>
   </si>
 </sst>
 </file>
@@ -620,7 +643,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -687,6 +710,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1090,12 +1119,84 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.2">
+      <c r="A4" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="E5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="E6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="E7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="E8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1308,15 +1409,15 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2162,8 +2263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2202,7 +2303,7 @@
         <v>104</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>98</v>
@@ -2233,13 +2334,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E3" s="5"/>
       <c r="H3" s="2"/>
@@ -2253,13 +2354,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E4" s="5"/>
     </row>
@@ -2268,13 +2369,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -2283,10 +2384,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>101</v>
@@ -2303,10 +2404,10 @@
         <v>103</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -2317,10 +2418,10 @@
         <v>105</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E8" s="5"/>
     </row>
@@ -2332,13 +2433,13 @@
         <v>110</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>102</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -2346,13 +2447,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>116</v>
@@ -2363,13 +2464,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>114</v>
@@ -2380,16 +2481,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2397,16 +2498,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2417,13 +2518,13 @@
         <v>106</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2431,16 +2532,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>102</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2451,46 +2552,16 @@
         <v>107</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:13">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="57.6">
-      <c r="A19" s="2"/>
-      <c r="B19" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="2"/>
-      <c r="B20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="2"/>
-      <c r="B21" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="2"/>
-      <c r="B22" s="5"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2"/>
@@ -2504,7 +2575,7 @@
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
       <c r="F24" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
@@ -2645,14 +2716,14 @@
         <v>8</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" t="s">
         <v>100</v>
       </c>
       <c r="E33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H33" s="5"/>
       <c r="L33" s="5"/>
@@ -2662,11 +2733,11 @@
         <v>9</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C34" s="5"/>
       <c r="E34" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H34" s="5"/>
       <c r="L34" s="5"/>
@@ -2715,7 +2786,7 @@
   <sheetData>
     <row r="4" spans="7:16">
       <c r="J4" s="21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K4" s="21"/>
       <c r="L4" s="21"/>
@@ -2736,7 +2807,7 @@
     <row r="7" spans="7:16">
       <c r="G7" s="17"/>
       <c r="H7" s="22" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
@@ -2798,7 +2869,7 @@
     <row r="12" spans="7:16">
       <c r="G12" s="17"/>
       <c r="H12" s="23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
@@ -2860,7 +2931,7 @@
     <row r="17" spans="7:16">
       <c r="G17" s="17"/>
       <c r="H17" s="24" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
